--- a/策划目录/Excel/测试.xlsx
+++ b/策划目录/Excel/测试.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC53A967-A254-4BC3-B5B8-9DB86E9509BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF17E54F-F465-4EFC-8323-F247A8D86876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,12 +12,23 @@
     <sheet name="OtherSheet" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="44">
   <si>
     <t>int</t>
   </si>
@@ -94,14 +105,6 @@
   </si>
   <si>
     <t>血量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>策划备注列不会被导出</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>策划备注列不会被导出</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -634,24 +637,24 @@
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.5" style="3" customWidth="1"/>
-    <col min="3" max="3" width="13.125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="12.625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="18.25" style="3" customWidth="1"/>
-    <col min="6" max="6" width="10.375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="10.75" style="3" customWidth="1"/>
-    <col min="8" max="8" width="11" style="3" customWidth="1"/>
-    <col min="9" max="9" width="14.625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="18.25" style="3" customWidth="1"/>
-    <col min="11" max="11" width="19.25" style="3" customWidth="1"/>
-    <col min="12" max="12" width="18.375" style="3" customWidth="1"/>
-    <col min="13" max="13" width="26.25" style="3" customWidth="1"/>
+    <col min="2" max="2" width="11.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.625" style="3" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="19.875" style="3" customWidth="1"/>
     <col min="15" max="16" width="12.125" style="3" customWidth="1"/>
     <col min="17" max="16384" width="9" style="3"/>
@@ -686,13 +689,13 @@
         <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>8</v>
@@ -703,16 +706,16 @@
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>1</v>
@@ -724,31 +727,31 @@
         <v>13</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="L2" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>14</v>
@@ -766,7 +769,7 @@
         <v>17</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K3" s="4" t="s">
         <v>17</v>
@@ -779,17 +782,15 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="A4" s="2"/>
       <c r="B4" s="2">
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E4" s="2">
         <v>30</v>
@@ -804,33 +805,31 @@
         <v>9876543.1229999997</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="A5" s="2"/>
       <c r="B5" s="2">
         <v>0</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E5" s="2">
         <v>999</v>
@@ -845,33 +844,31 @@
         <v>9876543.1229999997</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="A6" s="2"/>
       <c r="B6" s="2">
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E6" s="2">
         <v>30</v>
@@ -886,33 +883,31 @@
         <v>9876543.1229999997</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="A7" s="2"/>
       <c r="B7" s="2">
         <v>0</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E7" s="2">
         <v>999</v>
@@ -927,33 +922,31 @@
         <v>9876543.1229999997</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="A8" s="2"/>
       <c r="B8" s="2">
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E8" s="2">
         <v>30</v>
@@ -968,19 +961,19 @@
         <v>9876543.1229999997</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -995,7 +988,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
